--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061A413D-1E6F-4088-A877-21837C51E0C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB65FF-2968-4D73-A27E-6A8C27B270D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1680" windowWidth="21855" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormulaData" sheetId="1" r:id="rId1"/>
     <sheet name="FormulaInfo" sheetId="3" r:id="rId2"/>
-    <sheet name="TextMap_Formula" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>FormulaName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,22 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TextID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value_CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>as</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FormulaID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,7 +68,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dd</t>
+    <t>FormulaName_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormulaDesc_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormulaName_101</t>
+  </si>
+  <si>
+    <t>FormulaDesc_101</t>
+  </si>
+  <si>
+    <t>100,101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:10,101:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +121,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,9 +155,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,42 +515,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
     <col min="5" max="6" width="19.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -526,22 +559,45 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -555,26 +611,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5155AB2-6BAF-457F-956E-0827BADBC954}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -584,7 +640,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -593,36 +649,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7762F6DA-4F54-4058-9541-7415ED44B9A5}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB65FF-2968-4D73-A27E-6A8C27B270D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB980ED9-590C-4F39-95C8-CF4D9A7B2D2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="1470" windowWidth="18900" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormulaData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>FormulaName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100:10,101:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,14 @@
   </si>
   <si>
     <t>102:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +522,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -591,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB980ED9-590C-4F39-95C8-CF4D9A7B2D2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC4D6C3-13F3-41BD-AD3E-25D3E4BEDB5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1650" yWindow="1470" windowWidth="18900" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>FormulaName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>102:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,12 +534,12 @@
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="19.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -549,16 +553,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -571,17 +578,20 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1">
+        <v>110</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -594,13 +604,16 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1">
+        <v>110</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC4D6C3-13F3-41BD-AD3E-25D3E4BEDB5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF2636-4721-4459-AA6E-A70ED1A42072}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1470" windowWidth="18900" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="2100" windowWidth="20745" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormulaData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>FormulaName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <t>FormulaDesc_101</t>
   </si>
   <si>
-    <t>100,101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100:10,101:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,18 @@
   </si>
   <si>
     <t>EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -582,13 +590,13 @@
         <v>110</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -608,13 +616,13 @@
         <v>110</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -626,39 +634,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5155AB2-6BAF-457F-956E-0827BADBC954}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF2636-4721-4459-AA6E-A70ED1A42072}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F006B-5136-47E7-B9B3-DEFA7C14C020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2100" windowWidth="20745" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormulaData" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ByProductList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FormulaID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>冶炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnhanceMaterial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -578,10 +578,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -590,13 +590,13 @@
         <v>110</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -604,10 +604,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>110</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5155AB2-6BAF-457F-956E-0827BADBC954}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -649,16 +649,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -666,13 +666,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F006B-5136-47E7-B9B3-DEFA7C14C020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224C0485-8C75-40A7-9277-3D8125B8BC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OutputMaterialList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FormulaID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>EnhanceMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutputMaterial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +534,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -561,16 +561,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -578,10 +578,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -590,13 +590,13 @@
         <v>110</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -604,10 +604,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>110</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -649,16 +649,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -666,13 +666,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224C0485-8C75-40A7-9277-3D8125B8BC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361F9C97-0FB8-427A-BC7C-C4B1449D49FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="1755" windowWidth="26310" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormulaData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>FormulaName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,22 @@
   </si>
   <si>
     <t>OutputMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Formula/Icon/MTL_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Formula/Icon/MTL_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,12 +554,13 @@
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -558,22 +571,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -583,23 +599,26 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>110</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -609,19 +628,22 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>110</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -636,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5155AB2-6BAF-457F-956E-0827BADBC954}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -666,13 +688,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FunctionBlockFormulaMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361F9C97-0FB8-427A-BC7C-C4B1449D49FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC17193E-B32E-432C-A096-A2EF20ADB889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1755" windowWidth="26310" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1440" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormulaData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>FormulaName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,34 @@
   </si>
   <si>
     <t>100,101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormulaName_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormulaDesc_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/FunctionBlock/Formula/Icon/MTL_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,7 +582,7 @@
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="1" customWidth="1"/>
     <col min="5" max="6" width="14.75" style="1" customWidth="1"/>
     <col min="7" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
@@ -645,6 +673,35 @@
       </c>
       <c r="I3" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -656,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5155AB2-6BAF-457F-956E-0827BADBC954}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,6 +754,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
